--- a/map.xlsx
+++ b/map.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\concordsoft\coumter_maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\counter_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="2" r:id="rId1"/>
@@ -6850,8 +6850,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7049,9 +7049,6 @@
       <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
       <c r="D14" s="3" t="b">
         <v>1</v>
       </c>
@@ -7060,9 +7057,6 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
       </c>
@@ -7074,9 +7068,6 @@
       <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
       </c>
@@ -7088,9 +7079,6 @@
       <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
@@ -7102,9 +7090,6 @@
       <c r="B18" t="s">
         <v>168</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
       </c>
@@ -7115,9 +7100,6 @@
       </c>
       <c r="B19" t="s">
         <v>103</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
@@ -9903,8 +9885,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
